--- a/实施周数据-李登林组/2018/4月/16周/实施周数据-李登林组-别伟超.xlsx
+++ b/实施周数据-李登林组/2018/4月/16周/实施周数据-李登林组-别伟超.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -3005,7 +3005,7 @@
     <t>东莞</t>
   </si>
   <si>
-    <t>一芳(东莞雍雅山庄店)</t>
+    <t>一芳(东莞黄江店)</t>
   </si>
   <si>
     <t>陈智超</t>
@@ -3039,6 +3039,42 @@
   </si>
   <si>
     <t>陈少龙</t>
+  </si>
+  <si>
+    <t>彦悦山百联又一城店</t>
+  </si>
+  <si>
+    <t>捞王锅物料理(昆山昆城店)</t>
+  </si>
+  <si>
+    <t>悸动(淮安翰林广场店)</t>
+  </si>
+  <si>
+    <t>悸动(南汇东门汽车站店)</t>
+  </si>
+  <si>
+    <t>悸动(南昌现代店)</t>
+  </si>
+  <si>
+    <t>悸动(大润发店)</t>
+  </si>
+  <si>
+    <t>悸动(龙颜店)</t>
+  </si>
+  <si>
+    <t>巢湖</t>
+  </si>
+  <si>
+    <t>悸动(巢湖安德利北城店)</t>
+  </si>
+  <si>
+    <t>悸动(合肥华府骏苑店)</t>
+  </si>
+  <si>
+    <t>荆州</t>
+  </si>
+  <si>
+    <t>悸动(荆州职业技术学院店)</t>
   </si>
   <si>
     <t>姓名</t>
@@ -3085,11 +3121,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -3187,16 +3223,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3210,6 +3289,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3218,33 +3305,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3257,59 +3336,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3324,7 +3360,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3394,31 +3430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3436,31 +3454,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3472,73 +3496,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3556,7 +3520,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3927,41 +3963,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3983,10 +3995,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4002,16 +4012,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4024,16 +4049,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4042,138 +4078,138 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
@@ -4184,7 +4220,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4373,27 +4409,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4908,440 +4923,440 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:17">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-      <c r="N1" s="74"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
     </row>
     <row r="2" ht="14.25" spans="1:17">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="105" t="s">
+      <c r="I2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="107" t="s">
+      <c r="K2" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="108" t="s">
+      <c r="L2" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="109" t="s">
+      <c r="M2" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="110" t="s">
+      <c r="N2" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="75"/>
-      <c r="B3" s="82" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85">
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78">
         <f t="shared" ref="F3:F11" si="0">D3-E3</f>
         <v>0</v>
       </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86">
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79">
         <f t="shared" ref="I3:I11" si="1">G3-H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113" t="e">
+      <c r="J3" s="105"/>
+      <c r="K3" s="106" t="e">
         <f t="shared" ref="K3:K11" si="2">J3/M3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="114">
+      <c r="L3" s="107">
         <f t="shared" ref="L3:L10" si="3">D3+H3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="115">
+      <c r="M3" s="108">
         <f>E3+H3</f>
         <v>0</v>
       </c>
-      <c r="N3" s="116" t="e">
+      <c r="N3" s="109" t="e">
         <f t="shared" ref="N3:N11" si="4">M3/L3*100%</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
+      <c r="O3" s="104"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="104"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="89" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91">
+      <c r="D4" s="83"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G4" s="92"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="92">
+      <c r="G4" s="85"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J4" s="117"/>
-      <c r="K4" s="113" t="e">
+      <c r="J4" s="110"/>
+      <c r="K4" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="114">
+      <c r="L4" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M4" s="115">
+      <c r="M4" s="108">
         <f t="shared" ref="M4:M10" si="5">E4+J4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="116" t="e">
+      <c r="N4" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="111"/>
-      <c r="P4" s="111"/>
-      <c r="Q4" s="111"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="104"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="89" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91">
+      <c r="D5" s="83"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="92">
+      <c r="G5" s="85"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="113" t="e">
+      <c r="J5" s="110"/>
+      <c r="K5" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="114">
+      <c r="L5" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M5" s="115">
+      <c r="M5" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N5" s="116" t="e">
+      <c r="N5" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="104"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91">
+      <c r="D6" s="83"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="92"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="92">
+      <c r="G6" s="85"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="117"/>
-      <c r="K6" s="113" t="e">
+      <c r="J6" s="110"/>
+      <c r="K6" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="114">
+      <c r="L6" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M6" s="115">
+      <c r="M6" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N6" s="116" t="e">
+      <c r="N6" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="111"/>
+      <c r="O6" s="104"/>
+      <c r="P6" s="104"/>
+      <c r="Q6" s="104"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91">
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="92">
+      <c r="G7" s="85"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="113" t="e">
+      <c r="J7" s="110"/>
+      <c r="K7" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="114">
+      <c r="L7" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M7" s="115">
+      <c r="M7" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="116" t="e">
+      <c r="N7" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="111"/>
-      <c r="P7" s="111"/>
-      <c r="Q7" s="111"/>
+      <c r="O7" s="104"/>
+      <c r="P7" s="104"/>
+      <c r="Q7" s="104"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="90"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91">
+      <c r="D8" s="83"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="92"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="92">
+      <c r="G8" s="85"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J8" s="117"/>
-      <c r="K8" s="113" t="e">
+      <c r="J8" s="110"/>
+      <c r="K8" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="114">
+      <c r="L8" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M8" s="115">
+      <c r="M8" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N8" s="116" t="e">
+      <c r="N8" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="111"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="111"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="104"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="87"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89" t="s">
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91">
+      <c r="D9" s="83"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="92"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="92">
+      <c r="G9" s="85"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="113" t="e">
+      <c r="J9" s="110"/>
+      <c r="K9" s="106" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="114">
+      <c r="L9" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M9" s="115">
+      <c r="M9" s="108">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N9" s="116" t="e">
+      <c r="N9" s="109" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
     </row>
     <row r="10" ht="14.25" spans="1:17">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="93" t="s">
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96">
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="97">
+      <c r="G10" s="90"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J10" s="118"/>
-      <c r="K10" s="119" t="e">
+      <c r="J10" s="111"/>
+      <c r="K10" s="112" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="120">
+      <c r="L10" s="113">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M10" s="121">
+      <c r="M10" s="114">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N10" s="122" t="e">
+      <c r="N10" s="115" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="111"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
     </row>
     <row r="11" ht="14.25" spans="1:17">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="95">
         <f t="shared" ref="D11:H11" si="6">SUM(D3:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F11" s="96">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="102">
+      <c r="G11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="H11" s="102">
+      <c r="H11" s="95">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I11" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="102">
+      <c r="J11" s="95">
         <f t="shared" ref="J11:M11" si="7">SUM(J3:J10)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="123" t="e">
+      <c r="K11" s="116" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="103">
+      <c r="L11" s="96">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="M11" s="103">
+      <c r="M11" s="96">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N11" s="124" t="e">
+      <c r="N11" s="117" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5360,9 +5375,9 @@
   <dimension ref="A1:Q755"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E465" sqref="E465"/>
+      <selection pane="bottomLeft" activeCell="I459" sqref="I459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9636,7 +9651,7 @@
       <c r="N95" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="O95" s="125" t="s">
+      <c r="O95" s="118" t="s">
         <v>270</v>
       </c>
       <c r="P95" s="15" t="s">
@@ -26071,25 +26086,25 @@
       <c r="F439" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G439" s="65" t="s">
+      <c r="G439" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="H439" s="65">
+      <c r="H439" s="16">
         <v>76156956</v>
       </c>
-      <c r="I439" s="65" t="s">
+      <c r="I439" s="16" t="s">
         <v>947</v>
       </c>
-      <c r="J439" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K439" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L439" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M439" s="68" t="s">
+      <c r="J439" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K439" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L439" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M439" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N439" s="15" t="s">
@@ -26124,25 +26139,25 @@
       <c r="F440" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G440" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H440" s="65">
+      <c r="G440" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H440" s="16">
         <v>76157016</v>
       </c>
-      <c r="I440" s="65" t="s">
+      <c r="I440" s="16" t="s">
         <v>948</v>
       </c>
-      <c r="J440" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K440" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L440" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M440" s="68" t="s">
+      <c r="J440" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K440" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L440" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M440" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N440" s="15" t="s">
@@ -26177,25 +26192,25 @@
       <c r="F441" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G441" s="65" t="s">
+      <c r="G441" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H441" s="65">
+      <c r="H441" s="16">
         <v>76158207</v>
       </c>
-      <c r="I441" s="65" t="s">
+      <c r="I441" s="16" t="s">
         <v>949</v>
       </c>
-      <c r="J441" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K441" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L441" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M441" s="68" t="s">
+      <c r="J441" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K441" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L441" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M441" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N441" s="15" t="s">
@@ -26230,25 +26245,25 @@
       <c r="F442" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G442" s="65" t="s">
+      <c r="G442" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H442" s="65">
+      <c r="H442" s="16">
         <v>76158337</v>
       </c>
-      <c r="I442" s="65" t="s">
+      <c r="I442" s="16" t="s">
         <v>950</v>
       </c>
-      <c r="J442" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K442" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L442" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M442" s="68" t="s">
+      <c r="J442" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K442" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L442" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M442" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N442" s="15" t="s">
@@ -26283,25 +26298,25 @@
       <c r="F443" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G443" s="65" t="s">
+      <c r="G443" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="H443" s="65">
+      <c r="H443" s="16">
         <v>76158510</v>
       </c>
-      <c r="I443" s="65" t="s">
+      <c r="I443" s="16" t="s">
         <v>951</v>
       </c>
-      <c r="J443" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K443" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L443" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M443" s="68" t="s">
+      <c r="J443" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K443" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L443" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M443" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N443" s="15" t="s">
@@ -26336,25 +26351,25 @@
       <c r="F444" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G444" s="65" t="s">
+      <c r="G444" s="16" t="s">
         <v>952</v>
       </c>
-      <c r="H444" s="65">
+      <c r="H444" s="16">
         <v>76158790</v>
       </c>
-      <c r="I444" s="65" t="s">
+      <c r="I444" s="16" t="s">
         <v>953</v>
       </c>
-      <c r="J444" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K444" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L444" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M444" s="68" t="s">
+      <c r="J444" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K444" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L444" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M444" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N444" s="15" t="s">
@@ -26389,25 +26404,25 @@
       <c r="F445" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G445" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H445" s="65">
+      <c r="G445" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H445" s="16">
         <v>76159000</v>
       </c>
-      <c r="I445" s="65" t="s">
+      <c r="I445" s="16" t="s">
         <v>954</v>
       </c>
-      <c r="J445" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K445" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L445" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M445" s="68" t="s">
+      <c r="J445" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K445" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L445" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M445" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N445" s="15" t="s">
@@ -26442,25 +26457,25 @@
       <c r="F446" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G446" s="65" t="s">
+      <c r="G446" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="H446" s="65">
+      <c r="H446" s="16">
         <v>76159105</v>
       </c>
-      <c r="I446" s="65" t="s">
+      <c r="I446" s="16" t="s">
         <v>955</v>
       </c>
-      <c r="J446" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K446" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L446" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M446" s="68" t="s">
+      <c r="J446" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K446" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L446" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M446" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N446" s="15" t="s">
@@ -26495,25 +26510,25 @@
       <c r="F447" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G447" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H447" s="65">
+      <c r="G447" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H447" s="16">
         <v>76159160</v>
       </c>
-      <c r="I447" s="65" t="s">
+      <c r="I447" s="16" t="s">
         <v>956</v>
       </c>
-      <c r="J447" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K447" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L447" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M447" s="68" t="s">
+      <c r="J447" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K447" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L447" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M447" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N447" s="15" t="s">
@@ -26548,25 +26563,25 @@
       <c r="F448" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="G448" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="H448" s="65">
+      <c r="G448" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H448" s="16">
         <v>76159283</v>
       </c>
-      <c r="I448" s="65" t="s">
+      <c r="I448" s="16" t="s">
         <v>957</v>
       </c>
-      <c r="J448" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K448" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L448" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M448" s="68" t="s">
+      <c r="J448" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K448" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L448" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M448" s="42" t="s">
         <v>868</v>
       </c>
       <c r="N448" s="15" t="s">
@@ -26601,31 +26616,31 @@
       <c r="F449" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G449" s="69" t="s">
+      <c r="G449" s="16" t="s">
         <v>958</v>
       </c>
-      <c r="H449" s="70">
+      <c r="H449" s="42">
         <v>76157209</v>
       </c>
-      <c r="I449" s="71" t="s">
+      <c r="I449" s="16" t="s">
         <v>959</v>
       </c>
-      <c r="J449" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K449" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L449" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M449" s="69" t="s">
+      <c r="J449" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K449" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L449" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M449" s="16" t="s">
         <v>960</v>
       </c>
       <c r="N449" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O449" s="69">
+      <c r="O449" s="16">
         <v>18188970508</v>
       </c>
       <c r="P449" s="15" t="s">
@@ -26654,31 +26669,31 @@
       <c r="F450" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G450" s="69" t="s">
+      <c r="G450" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="H450" s="70">
+      <c r="H450" s="42">
         <v>76157779</v>
       </c>
-      <c r="I450" s="71" t="s">
+      <c r="I450" s="16" t="s">
         <v>961</v>
       </c>
-      <c r="J450" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K450" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L450" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M450" s="69" t="s">
+      <c r="J450" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K450" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L450" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M450" s="16" t="s">
         <v>962</v>
       </c>
       <c r="N450" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O450" s="69">
+      <c r="O450" s="16">
         <v>15959208328</v>
       </c>
       <c r="P450" s="15" t="s">
@@ -26707,31 +26722,31 @@
       <c r="F451" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G451" s="69" t="s">
+      <c r="G451" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="H451" s="70">
+      <c r="H451" s="42">
         <v>76157782</v>
       </c>
-      <c r="I451" s="71" t="s">
+      <c r="I451" s="16" t="s">
         <v>963</v>
       </c>
-      <c r="J451" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K451" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L451" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M451" s="69" t="s">
+      <c r="J451" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K451" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L451" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M451" s="16" t="s">
         <v>964</v>
       </c>
       <c r="N451" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O451" s="69">
+      <c r="O451" s="16">
         <v>15160003550</v>
       </c>
       <c r="P451" s="15" t="s">
@@ -26760,31 +26775,31 @@
       <c r="F452" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G452" s="69" t="s">
+      <c r="G452" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H452" s="70">
+      <c r="H452" s="42">
         <v>76157786</v>
       </c>
-      <c r="I452" s="71" t="s">
+      <c r="I452" s="16" t="s">
         <v>965</v>
       </c>
-      <c r="J452" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K452" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L452" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M452" s="69" t="s">
+      <c r="J452" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K452" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L452" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M452" s="16" t="s">
         <v>966</v>
       </c>
       <c r="N452" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O452" s="69">
+      <c r="O452" s="16">
         <v>15052566292</v>
       </c>
       <c r="P452" s="15" t="s">
@@ -26813,31 +26828,31 @@
       <c r="F453" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G453" s="69" t="s">
+      <c r="G453" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="H453" s="70">
+      <c r="H453" s="42">
         <v>76158012</v>
       </c>
-      <c r="I453" s="71" t="s">
+      <c r="I453" s="16" t="s">
         <v>967</v>
       </c>
-      <c r="J453" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K453" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L453" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M453" s="69" t="s">
+      <c r="J453" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K453" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L453" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M453" s="16" t="s">
         <v>968</v>
       </c>
       <c r="N453" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O453" s="69">
+      <c r="O453" s="16">
         <v>13049483287</v>
       </c>
       <c r="P453" s="15" t="s">
@@ -26866,31 +26881,31 @@
       <c r="F454" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G454" s="69" t="s">
+      <c r="G454" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="H454" s="70">
+      <c r="H454" s="42">
         <v>76158013</v>
       </c>
-      <c r="I454" s="71" t="s">
+      <c r="I454" s="16" t="s">
         <v>969</v>
       </c>
-      <c r="J454" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K454" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L454" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M454" s="69" t="s">
+      <c r="J454" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K454" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L454" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M454" s="16" t="s">
         <v>970</v>
       </c>
       <c r="N454" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O454" s="69">
+      <c r="O454" s="16">
         <v>13510008106</v>
       </c>
       <c r="P454" s="15" t="s">
@@ -26919,31 +26934,31 @@
       <c r="F455" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G455" s="69" t="s">
+      <c r="G455" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="H455" s="70">
+      <c r="H455" s="42">
         <v>76158015</v>
       </c>
-      <c r="I455" s="71" t="s">
+      <c r="I455" s="16" t="s">
         <v>971</v>
       </c>
-      <c r="J455" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K455" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L455" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M455" s="69" t="s">
+      <c r="J455" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K455" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L455" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M455" s="16" t="s">
         <v>972</v>
       </c>
       <c r="N455" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O455" s="69">
+      <c r="O455" s="16">
         <v>13433505111</v>
       </c>
       <c r="P455" s="15" t="s">
@@ -26972,31 +26987,31 @@
       <c r="F456" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G456" s="69" t="s">
+      <c r="G456" s="16" t="s">
         <v>928</v>
       </c>
-      <c r="H456" s="70">
+      <c r="H456" s="42">
         <v>76158017</v>
       </c>
-      <c r="I456" s="71" t="s">
+      <c r="I456" s="16" t="s">
         <v>973</v>
       </c>
-      <c r="J456" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K456" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L456" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M456" s="69" t="s">
+      <c r="J456" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K456" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L456" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M456" s="16" t="s">
         <v>974</v>
       </c>
       <c r="N456" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O456" s="69">
+      <c r="O456" s="16">
         <v>15917775393</v>
       </c>
       <c r="P456" s="15" t="s">
@@ -27025,31 +27040,31 @@
       <c r="F457" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G457" s="69" t="s">
+      <c r="G457" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H457" s="70">
+      <c r="H457" s="42">
         <v>76158233</v>
       </c>
-      <c r="I457" s="71" t="s">
+      <c r="I457" s="16" t="s">
         <v>975</v>
       </c>
-      <c r="J457" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K457" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L457" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M457" s="69" t="s">
+      <c r="J457" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K457" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L457" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M457" s="16" t="s">
         <v>976</v>
       </c>
       <c r="N457" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O457" s="69">
+      <c r="O457" s="16">
         <v>13886138448</v>
       </c>
       <c r="P457" s="15" t="s">
@@ -27078,31 +27093,31 @@
       <c r="F458" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G458" s="69" t="s">
+      <c r="G458" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H458" s="70">
+      <c r="H458" s="42">
         <v>76158283</v>
       </c>
-      <c r="I458" s="69" t="s">
+      <c r="I458" s="16" t="s">
         <v>977</v>
       </c>
-      <c r="J458" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K458" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L458" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M458" s="69" t="s">
+      <c r="J458" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K458" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L458" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M458" s="16" t="s">
         <v>978</v>
       </c>
       <c r="N458" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O458" s="69">
+      <c r="O458" s="16">
         <v>17821727478</v>
       </c>
       <c r="P458" s="15" t="s">
@@ -27131,31 +27146,31 @@
       <c r="F459" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G459" s="69" t="s">
+      <c r="G459" s="16" t="s">
         <v>979</v>
       </c>
-      <c r="H459" s="70">
+      <c r="H459" s="42">
         <v>76158285</v>
       </c>
-      <c r="I459" s="69" t="s">
+      <c r="I459" s="16" t="s">
         <v>980</v>
       </c>
-      <c r="J459" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K459" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L459" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M459" s="69" t="s">
+      <c r="J459" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K459" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L459" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M459" s="16" t="s">
         <v>981</v>
       </c>
       <c r="N459" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O459" s="69">
+      <c r="O459" s="16">
         <v>15899659611</v>
       </c>
       <c r="P459" s="15" t="s">
@@ -27184,31 +27199,31 @@
       <c r="F460" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G460" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="H460" s="70">
+      <c r="G460" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H460" s="42">
         <v>76158616</v>
       </c>
-      <c r="I460" s="69" t="s">
+      <c r="I460" s="16" t="s">
         <v>982</v>
       </c>
-      <c r="J460" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K460" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L460" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M460" s="69" t="s">
+      <c r="J460" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K460" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L460" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M460" s="16" t="s">
         <v>983</v>
       </c>
       <c r="N460" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O460" s="69">
+      <c r="O460" s="16">
         <v>15055366393</v>
       </c>
       <c r="P460" s="15" t="s">
@@ -27237,31 +27252,31 @@
       <c r="F461" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G461" s="69" t="s">
+      <c r="G461" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="H461" s="70">
+      <c r="H461" s="42">
         <v>76159016</v>
       </c>
-      <c r="I461" s="69" t="s">
+      <c r="I461" s="16" t="s">
         <v>984</v>
       </c>
-      <c r="J461" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K461" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L461" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M461" s="69" t="s">
+      <c r="J461" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K461" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L461" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M461" s="16" t="s">
         <v>985</v>
       </c>
       <c r="N461" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O461" s="69">
+      <c r="O461" s="16">
         <v>18051321020</v>
       </c>
       <c r="P461" s="15" t="s">
@@ -27290,31 +27305,31 @@
       <c r="F462" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G462" s="69" t="s">
+      <c r="G462" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="H462" s="70">
+      <c r="H462" s="42">
         <v>76159017</v>
       </c>
-      <c r="I462" s="69" t="s">
+      <c r="I462" s="16" t="s">
         <v>986</v>
       </c>
-      <c r="J462" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K462" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L462" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M462" s="69" t="s">
+      <c r="J462" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K462" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L462" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M462" s="16" t="s">
         <v>987</v>
       </c>
       <c r="N462" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="O462" s="69">
+      <c r="O462" s="16">
         <v>15606099904</v>
       </c>
       <c r="P462" s="15" t="s">
@@ -27343,31 +27358,31 @@
       <c r="F463" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G463" s="69" t="s">
+      <c r="G463" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="H463" s="70">
+      <c r="H463" s="42">
         <v>76159023</v>
       </c>
-      <c r="I463" s="69" t="s">
+      <c r="I463" s="16" t="s">
         <v>988</v>
       </c>
-      <c r="J463" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K463" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L463" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M463" s="69" t="s">
+      <c r="J463" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K463" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L463" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M463" s="16" t="s">
         <v>989</v>
       </c>
       <c r="N463" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O463" s="69">
+      <c r="O463" s="16">
         <v>18612501899</v>
       </c>
       <c r="P463" s="15" t="s">
@@ -27396,31 +27411,31 @@
       <c r="F464" s="15" t="s">
         <v>413</v>
       </c>
-      <c r="G464" s="69" t="s">
+      <c r="G464" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="H464" s="70">
+      <c r="H464" s="42">
         <v>76159030</v>
       </c>
-      <c r="I464" s="69" t="s">
+      <c r="I464" s="16" t="s">
         <v>990</v>
       </c>
-      <c r="J464" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="K464" s="67" t="s">
-        <v>20</v>
-      </c>
-      <c r="L464" s="66">
-        <v>17721436606</v>
-      </c>
-      <c r="M464" s="69" t="s">
+      <c r="J464" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K464" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L464" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M464" s="16" t="s">
         <v>991</v>
       </c>
       <c r="N464" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="O464" s="69">
+      <c r="O464" s="16">
         <v>15959572727</v>
       </c>
       <c r="P464" s="15" t="s">
@@ -27435,59 +27450,540 @@
       <c r="B465" s="21"/>
       <c r="P465" s="8"/>
     </row>
-    <row r="466" spans="1:16">
-      <c r="A466" s="64"/>
-      <c r="B466" s="21"/>
-      <c r="P466" s="8"/>
-    </row>
-    <row r="467" spans="1:16">
-      <c r="A467" s="22"/>
-      <c r="B467" s="21"/>
-      <c r="P467" s="8"/>
+    <row r="466" spans="1:17">
+      <c r="A466" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B466" s="19">
+        <v>17</v>
+      </c>
+      <c r="C466" s="18">
+        <v>43206</v>
+      </c>
+      <c r="D466" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E466" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="F466" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="G466" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H466" s="8">
+        <v>76159319</v>
+      </c>
+      <c r="I466" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="J466" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K466" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L466" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M466" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="N466" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O466" s="8">
+        <v>13701844181</v>
+      </c>
+      <c r="P466" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q466" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="467" s="5" customFormat="1" spans="1:17">
+      <c r="A467" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B467" s="19">
+        <v>17</v>
+      </c>
+      <c r="C467" s="18">
+        <v>43206</v>
+      </c>
+      <c r="D467" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E467" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F467" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G467" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="H467" s="8">
+        <v>76159201</v>
+      </c>
+      <c r="I467" s="8" t="s">
+        <v>993</v>
+      </c>
+      <c r="J467" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K467" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L467" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M467" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="N467" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O467" s="8">
+        <v>15921046369</v>
+      </c>
+      <c r="P467" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q467" s="5" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="468" spans="1:16">
       <c r="A468" s="64"/>
       <c r="B468" s="21"/>
       <c r="P468" s="8"/>
     </row>
-    <row r="469" spans="1:16">
-      <c r="A469" s="22"/>
-      <c r="B469" s="21"/>
-      <c r="P469" s="8"/>
-    </row>
-    <row r="470" spans="1:16">
-      <c r="A470" s="64"/>
-      <c r="B470" s="21"/>
-      <c r="P470" s="8"/>
-    </row>
-    <row r="471" spans="1:16">
-      <c r="A471" s="22"/>
-      <c r="B471" s="21"/>
-      <c r="P471" s="8"/>
-    </row>
-    <row r="472" spans="1:16">
-      <c r="A472" s="64"/>
-      <c r="B472" s="21"/>
-      <c r="P472" s="8"/>
-    </row>
-    <row r="473" spans="1:16">
-      <c r="A473" s="22"/>
-      <c r="B473" s="21"/>
-      <c r="P473" s="8"/>
-    </row>
-    <row r="474" spans="1:16">
-      <c r="A474" s="64"/>
-      <c r="B474" s="21"/>
-      <c r="P474" s="8"/>
-    </row>
-    <row r="475" spans="1:16">
-      <c r="A475" s="22"/>
-      <c r="B475" s="21"/>
-      <c r="P475" s="8"/>
-    </row>
-    <row r="476" spans="1:2">
-      <c r="A476" s="64"/>
-      <c r="B476" s="21"/>
+    <row r="469" spans="1:17">
+      <c r="A469" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B469" s="19">
+        <v>18</v>
+      </c>
+      <c r="C469" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D469" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E469" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F469" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G469" s="16" t="s">
+        <v>882</v>
+      </c>
+      <c r="H469" s="16">
+        <v>76159660</v>
+      </c>
+      <c r="I469" s="16" t="s">
+        <v>994</v>
+      </c>
+      <c r="J469" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K469" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L469" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M469" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N469" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O469" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P469" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q469" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="470" spans="1:17">
+      <c r="A470" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B470" s="19">
+        <v>18</v>
+      </c>
+      <c r="C470" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D470" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E470" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F470" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G470" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H470" s="16">
+        <v>76159815</v>
+      </c>
+      <c r="I470" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="J470" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K470" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L470" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M470" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N470" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O470" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P470" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q470" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="471" spans="1:17">
+      <c r="A471" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B471" s="19">
+        <v>18</v>
+      </c>
+      <c r="C471" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D471" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E471" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F471" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G471" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="H471" s="16">
+        <v>76160062</v>
+      </c>
+      <c r="I471" s="16" t="s">
+        <v>996</v>
+      </c>
+      <c r="J471" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K471" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L471" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M471" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N471" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O471" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P471" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q471" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="472" spans="1:17">
+      <c r="A472" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B472" s="19">
+        <v>18</v>
+      </c>
+      <c r="C472" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D472" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E472" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F472" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G472" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H472" s="16">
+        <v>76160521</v>
+      </c>
+      <c r="I472" s="16" t="s">
+        <v>997</v>
+      </c>
+      <c r="J472" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K472" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L472" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M472" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N472" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O472" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P472" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q472" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="473" spans="1:17">
+      <c r="A473" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B473" s="19">
+        <v>18</v>
+      </c>
+      <c r="C473" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D473" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E473" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F473" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G473" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H473" s="16">
+        <v>76161689</v>
+      </c>
+      <c r="I473" s="16" t="s">
+        <v>998</v>
+      </c>
+      <c r="J473" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K473" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L473" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M473" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N473" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O473" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P473" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q473" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="474" spans="1:17">
+      <c r="A474" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B474" s="19">
+        <v>18</v>
+      </c>
+      <c r="C474" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D474" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E474" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F474" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G474" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="H474" s="16">
+        <v>76161753</v>
+      </c>
+      <c r="I474" s="16" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J474" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K474" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L474" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M474" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N474" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O474" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P474" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q474" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="475" spans="1:17">
+      <c r="A475" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B475" s="19">
+        <v>18</v>
+      </c>
+      <c r="C475" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D475" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E475" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F475" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G475" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H475" s="16">
+        <v>76161881</v>
+      </c>
+      <c r="I475" s="16" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J475" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K475" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L475" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M475" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N475" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O475" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P475" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q475" s="5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="476" spans="1:17">
+      <c r="A476" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B476" s="19">
+        <v>18</v>
+      </c>
+      <c r="C476" s="18">
+        <v>43217</v>
+      </c>
+      <c r="D476" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="E476" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F476" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="G476" s="16" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H476" s="16">
+        <v>76162059</v>
+      </c>
+      <c r="I476" s="16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J476" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K476" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L476" s="15">
+        <v>17721436606</v>
+      </c>
+      <c r="M476" s="42" t="s">
+        <v>868</v>
+      </c>
+      <c r="N476" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="O476" s="8">
+        <v>18895602870</v>
+      </c>
+      <c r="P476" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q476" s="5" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="477" spans="1:2">
       <c r="A477" s="22"/>
@@ -28046,421 +28542,421 @@
       <c r="B615" s="15"/>
     </row>
     <row r="616" spans="1:1">
-      <c r="A616" s="72"/>
+      <c r="A616" s="65"/>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="12"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="72"/>
+      <c r="A618" s="65"/>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="12"/>
     </row>
     <row r="620" spans="1:1">
-      <c r="A620" s="72"/>
+      <c r="A620" s="65"/>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="12"/>
     </row>
     <row r="622" spans="1:1">
-      <c r="A622" s="72"/>
+      <c r="A622" s="65"/>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="12"/>
     </row>
     <row r="624" spans="1:1">
-      <c r="A624" s="72"/>
+      <c r="A624" s="65"/>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="12"/>
     </row>
     <row r="626" spans="1:1">
-      <c r="A626" s="72"/>
+      <c r="A626" s="65"/>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="12"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="72"/>
+      <c r="A628" s="65"/>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="12"/>
     </row>
     <row r="630" spans="1:1">
-      <c r="A630" s="72"/>
+      <c r="A630" s="65"/>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="12"/>
     </row>
     <row r="632" spans="1:1">
-      <c r="A632" s="72"/>
+      <c r="A632" s="65"/>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="12"/>
     </row>
     <row r="634" spans="1:1">
-      <c r="A634" s="72"/>
+      <c r="A634" s="65"/>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="12"/>
     </row>
     <row r="636" spans="1:1">
-      <c r="A636" s="72"/>
+      <c r="A636" s="65"/>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="12"/>
     </row>
     <row r="638" spans="1:1">
-      <c r="A638" s="72"/>
+      <c r="A638" s="65"/>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="12"/>
     </row>
     <row r="640" spans="1:1">
-      <c r="A640" s="72"/>
+      <c r="A640" s="65"/>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="12"/>
     </row>
     <row r="642" spans="1:1">
-      <c r="A642" s="72"/>
+      <c r="A642" s="65"/>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="12"/>
     </row>
     <row r="644" spans="1:1">
-      <c r="A644" s="72"/>
+      <c r="A644" s="65"/>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="12"/>
     </row>
     <row r="646" spans="1:1">
-      <c r="A646" s="72"/>
+      <c r="A646" s="65"/>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="12"/>
     </row>
     <row r="648" spans="1:1">
-      <c r="A648" s="72"/>
+      <c r="A648" s="65"/>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="12"/>
     </row>
     <row r="650" spans="1:1">
-      <c r="A650" s="72"/>
+      <c r="A650" s="65"/>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="12"/>
     </row>
     <row r="652" spans="1:1">
-      <c r="A652" s="72"/>
+      <c r="A652" s="65"/>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="12"/>
     </row>
     <row r="654" spans="1:1">
-      <c r="A654" s="72"/>
+      <c r="A654" s="65"/>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="12"/>
     </row>
     <row r="656" spans="1:1">
-      <c r="A656" s="72"/>
+      <c r="A656" s="65"/>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="12"/>
     </row>
     <row r="658" spans="1:1">
-      <c r="A658" s="72"/>
+      <c r="A658" s="65"/>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="12"/>
     </row>
     <row r="660" spans="1:1">
-      <c r="A660" s="72"/>
+      <c r="A660" s="65"/>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="12"/>
     </row>
     <row r="662" spans="1:1">
-      <c r="A662" s="72"/>
+      <c r="A662" s="65"/>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="12"/>
     </row>
     <row r="664" spans="1:1">
-      <c r="A664" s="72"/>
+      <c r="A664" s="65"/>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="12"/>
     </row>
     <row r="666" spans="1:1">
-      <c r="A666" s="72"/>
+      <c r="A666" s="65"/>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="12"/>
     </row>
     <row r="668" spans="1:1">
-      <c r="A668" s="72"/>
+      <c r="A668" s="65"/>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="12"/>
     </row>
     <row r="670" spans="1:1">
-      <c r="A670" s="72"/>
+      <c r="A670" s="65"/>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="12"/>
     </row>
     <row r="672" spans="1:1">
-      <c r="A672" s="72"/>
+      <c r="A672" s="65"/>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="12"/>
     </row>
     <row r="674" spans="1:1">
-      <c r="A674" s="72"/>
+      <c r="A674" s="65"/>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="12"/>
     </row>
     <row r="676" spans="1:1">
-      <c r="A676" s="72"/>
+      <c r="A676" s="65"/>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="12"/>
     </row>
     <row r="678" spans="1:1">
-      <c r="A678" s="72"/>
+      <c r="A678" s="65"/>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="12"/>
     </row>
     <row r="680" spans="1:1">
-      <c r="A680" s="72"/>
+      <c r="A680" s="65"/>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="12"/>
     </row>
     <row r="682" spans="1:1">
-      <c r="A682" s="72"/>
+      <c r="A682" s="65"/>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="12"/>
     </row>
     <row r="684" spans="1:1">
-      <c r="A684" s="72"/>
+      <c r="A684" s="65"/>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="12"/>
     </row>
     <row r="686" spans="1:1">
-      <c r="A686" s="72"/>
+      <c r="A686" s="65"/>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="12"/>
     </row>
     <row r="688" spans="1:1">
-      <c r="A688" s="72"/>
+      <c r="A688" s="65"/>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="12"/>
     </row>
     <row r="690" spans="1:1">
-      <c r="A690" s="72"/>
+      <c r="A690" s="65"/>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="12"/>
     </row>
     <row r="692" spans="1:1">
-      <c r="A692" s="72"/>
+      <c r="A692" s="65"/>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="12"/>
     </row>
     <row r="694" spans="1:1">
-      <c r="A694" s="72"/>
+      <c r="A694" s="65"/>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="12"/>
     </row>
     <row r="696" spans="1:1">
-      <c r="A696" s="72"/>
+      <c r="A696" s="65"/>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="12"/>
     </row>
     <row r="698" spans="1:1">
-      <c r="A698" s="72"/>
+      <c r="A698" s="65"/>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="12"/>
     </row>
     <row r="700" spans="1:1">
-      <c r="A700" s="72"/>
+      <c r="A700" s="65"/>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="12"/>
     </row>
     <row r="702" spans="1:1">
-      <c r="A702" s="72"/>
+      <c r="A702" s="65"/>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="12"/>
     </row>
     <row r="704" spans="1:1">
-      <c r="A704" s="72"/>
+      <c r="A704" s="65"/>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="12"/>
     </row>
     <row r="706" spans="1:1">
-      <c r="A706" s="72"/>
+      <c r="A706" s="65"/>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="12"/>
     </row>
     <row r="708" spans="1:1">
-      <c r="A708" s="72"/>
+      <c r="A708" s="65"/>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="12"/>
     </row>
     <row r="710" spans="1:1">
-      <c r="A710" s="72"/>
+      <c r="A710" s="65"/>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="12"/>
     </row>
     <row r="712" spans="1:1">
-      <c r="A712" s="72"/>
+      <c r="A712" s="65"/>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="12"/>
     </row>
     <row r="714" spans="1:1">
-      <c r="A714" s="72"/>
+      <c r="A714" s="65"/>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="12"/>
     </row>
     <row r="716" spans="1:1">
-      <c r="A716" s="72"/>
+      <c r="A716" s="65"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="12"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="72"/>
+      <c r="A718" s="65"/>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="12"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="72"/>
+      <c r="A720" s="65"/>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="12"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="72"/>
+      <c r="A722" s="65"/>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="12"/>
     </row>
     <row r="724" spans="1:1">
-      <c r="A724" s="72"/>
+      <c r="A724" s="65"/>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="12"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="72"/>
+      <c r="A726" s="65"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="12"/>
     </row>
     <row r="728" spans="1:1">
-      <c r="A728" s="72"/>
+      <c r="A728" s="65"/>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="12"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="72"/>
+      <c r="A730" s="65"/>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="12"/>
     </row>
     <row r="732" spans="1:1">
-      <c r="A732" s="72"/>
+      <c r="A732" s="65"/>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="12"/>
     </row>
     <row r="734" spans="1:1">
-      <c r="A734" s="72"/>
+      <c r="A734" s="65"/>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="12"/>
     </row>
     <row r="736" spans="1:1">
-      <c r="A736" s="72"/>
+      <c r="A736" s="65"/>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="12"/>
     </row>
     <row r="738" spans="1:1">
-      <c r="A738" s="72"/>
+      <c r="A738" s="65"/>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="12"/>
     </row>
     <row r="740" spans="1:1">
-      <c r="A740" s="72"/>
+      <c r="A740" s="65"/>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="12"/>
     </row>
     <row r="742" spans="1:1">
-      <c r="A742" s="72"/>
+      <c r="A742" s="65"/>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="12"/>
     </row>
     <row r="744" spans="1:1">
-      <c r="A744" s="72"/>
+      <c r="A744" s="65"/>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="12"/>
     </row>
     <row r="746" spans="1:1">
-      <c r="A746" s="72"/>
+      <c r="A746" s="65"/>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="12"/>
     </row>
     <row r="748" spans="1:1">
-      <c r="A748" s="72"/>
+      <c r="A748" s="65"/>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="12"/>
     </row>
     <row r="750" spans="1:1">
-      <c r="A750" s="72"/>
+      <c r="A750" s="65"/>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="12"/>
     </row>
     <row r="752" spans="1:1">
-      <c r="A752" s="72"/>
+      <c r="A752" s="65"/>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="12"/>
     </row>
     <row r="754" spans="1:1">
-      <c r="A754" s="72"/>
+      <c r="A754" s="65"/>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="12"/>
@@ -28473,10 +28969,10 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C398 C399 C400 C401 C402 C403 C404 C405 C406 C407 C408 C409 C410 C411 C412 C413 C414 C415 C416 C417 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C434 C435 C436 C437 C438 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C389:C397 C430:C433 C439:C448 C449:C462 C463:C464 C465:C1048576">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C2 C3 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C60 C71 C84 C85 C86 C106 C163 C179 C198 C199 C200 C216 C227 C228 C229 C230 C231 C232 C233 C234 C235 C236 C237 C238 C239 C240 C241 C242 C243 C244 C245 C246 C247 C248 C249 C250 C251 C252 C253 C254 C255 C256 C257 C258 C265 C266 C267 C268 C269 C270 C271 C272 C273 C274 C275 C276 C277 C278 C279 C280 C281 C282 C283 C284 C285 C286 C287 C288 C289 C290 C291 C292 C293 C294 C295 C296 C297 C298 C299 C300 C301 C302 C320 C321 C322 C323 C324 C337 C338 C339 C340 C341 C342 C343 C344 C345 C346 C347 C348 C349 C350 C351 C352 C353 C354 C355 C356 C357 C358 C359 C360 C361 C362 C363 C364 C365 C366 C367 C368 C369 C370 C371 C372 C373 C374 C375 C376 C377 C378 C379 C380 C381 C382 C383 C384 C385 C386 C387 C388 C398 C399 C400 C401 C402 C403 C404 C405 C406 C407 C408 C409 C410 C411 C412 C413 C414 C415 C416 C417 C418 C419 C420 C421 C422 C423 C424 C425 C426 C427 C428 C429 C434 C435 C436 C437 C438 C465 C466 C467 C468 C4:C17 C18:C23 C24:C34 C49:C59 C61:C70 C72:C81 C82:C83 C87:C105 C107:C117 C118:C137 C138:C146 C147:C162 C164:C178 C180:C197 C201:C215 C217:C226 C259:C261 C262:C264 C303:C313 C314:C319 C325:C330 C331:C336 C389:C397 C430:C433 C439:C448 C449:C462 C463:C464 C469:C476 C477:C1048576">
       <formula1>42736</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D398 D399 D400 D401 D402 D403 D404 D405 D406 D407 D408 D409 D410 D411 D412 D413 D414 D415 D416 D417 D418 D419 D420 D421 D422 D423 D424 D425 D426 D427 D428 D429 D430 D431 D432 D433 D438 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D376:D388 D389:D397 D434:D437 D439:D448 D449:D462 D463:D464 D465:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D2 D3 D18 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D60 D71 D84 D85 D86 D106 D146 D163 D179 D198 D199 D200 D216 D227 D228 D229 D235 D236 D237 D238 D239 D240 D241 D242 D243 D244 D245 D246 D247 D248 D249 D250 D251 D252 D253 D254 D255 D256 D257 D258 D259 D265 D266 D267 D268 D269 D270 D271 D272 D273 D274 D275 D276 D277 D278 D279 D280 D281 D282 D283 D284 D285 D286 D287 D288 D289 D290 D291 D292 D293 D294 D295 D296 D297 D298 D299 D300 D301 D302 D320 D321 D322 D323 D324 D337 D338 D339 D340 D341 D342 D343 D344 D345 D346 D347 D348 D349 D350 D351 D352 D353 D354 D355 D356 D357 D358 D369 D370 D371 D372 D373 D374 D375 D398 D399 D400 D401 D402 D403 D404 D405 D406 D407 D408 D409 D410 D411 D412 D413 D414 D415 D416 D417 D418 D419 D420 D421 D422 D423 D424 D425 D426 D427 D428 D429 D430 D431 D432 D433 D438 D465 D466 D467 D468 D4:D17 D19:D22 D23:D35 D49:D59 D61:D70 D72:D81 D82:D83 D87:D105 D107:D117 D118:D137 D138:D145 D147:D162 D164:D178 D180:D197 D201:D215 D217:D226 D230:D234 D260:D264 D303:D313 D314:D319 D325:D331 D332:D336 D359:D368 D376:D388 D389:D397 D434:D437 D439:D448 D449:D462 D463:D464 D469:D476 D477:D1048576">
       <formula1>"SaaS,库存,供应链,饮食通,饮食通老客户上线"</formula1>
     </dataValidation>
   </dataValidations>
@@ -28505,13 +29001,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>992</v>
+        <v>1004</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>993</v>
+        <v>1005</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>994</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -28522,7 +29018,7 @@
         <v>42980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>995</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -28533,7 +29029,7 @@
         <v>42994</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -28544,7 +29040,7 @@
         <v>43001</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>997</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -28560,7 +29056,7 @@
         <v>43050</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>998</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -28571,7 +29067,7 @@
         <v>43064</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -28587,7 +29083,7 @@
         <v>43079</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>999</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -28598,7 +29094,7 @@
         <v>43085</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1000</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -28609,7 +29105,7 @@
         <v>43092</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1001</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -28620,7 +29116,7 @@
         <v>43099</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1002</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -28631,7 +29127,7 @@
         <v>43100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -28647,7 +29143,7 @@
         <v>43107</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>996</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -28658,7 +29154,7 @@
         <v>43113</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1004</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="17" spans="1:3">
